--- a/Results/Table - LandCover Coefficients and CL.xlsx
+++ b/Results/Table - LandCover Coefficients and CL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\WinterSelection\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3F5749D-9E8B-40AA-ABD0-FB28ED0DF07B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78F738-69A2-49D9-9C11-B9994291BFC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32655" yWindow="2595" windowWidth="11175" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table - LandCover Coefficients " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
   <si>
     <t>Wind Chill</t>
   </si>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -524,6 +524,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,19 +589,64 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -937,905 +1002,900 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="17">
+        <v>1.34</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.156</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1.075</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1.36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.193</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.442</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F5" s="17">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1.169</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.111</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.433</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.871</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.429</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.222</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.871</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="E12" s="17">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E13" s="17">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.314</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.127</v>
+      </c>
+      <c r="F14" s="17">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.122</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.122</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E16" s="17">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="F16" s="17">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="D17" s="17">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="G18" s="17">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="E19" s="17">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="G19" s="17">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>-0.90100000000000002</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-1.5169999999999999</v>
+      </c>
+      <c r="G20" s="17">
+        <v>-0.41699999999999998</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17">
+        <v>-0.98099999999999998</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F21" s="17">
+        <v>-1.554</v>
+      </c>
+      <c r="G21" s="17">
+        <v>-0.53600000000000003</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>-0.55200000000000005</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="G22" s="17">
+        <v>-0.30099999999999999</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.155</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-0.93300000000000005</v>
+      </c>
+      <c r="G23" s="17">
+        <v>-0.316</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.128</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>-0.67200000000000004</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F26" s="17">
+        <v>-1.0129999999999999</v>
+      </c>
+      <c r="G26" s="17">
+        <v>-0.37</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="17">
+        <v>-0.84899999999999998</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.158</v>
+      </c>
+      <c r="F27" s="17">
+        <v>-1.179</v>
+      </c>
+      <c r="G27" s="17">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.069</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="D28" s="18">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="E28" s="18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F28" s="18">
+        <v>-0.33700000000000002</v>
+      </c>
+      <c r="G28" s="18">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.496</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="D29" s="18">
+        <v>-0.123</v>
+      </c>
+      <c r="E29" s="18">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F29" s="18">
+        <v>-0.25800000000000001</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F30" s="18">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="G30" s="18">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F31" s="18">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="G31" s="18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="E32" s="18">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F32" s="18">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="G32" s="18">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="18">
+        <v>-0.186</v>
+      </c>
+      <c r="E33" s="18">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F33" s="18">
+        <v>-0.38200000000000001</v>
+      </c>
+      <c r="G33" s="18">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>-0.215</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F34" s="18">
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="G34" s="18">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="18">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F35" s="18">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="G35" s="18">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C36" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.109</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="D36" s="18">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E36" s="18">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>-0.113</v>
+      </c>
+      <c r="G36" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D37" s="18">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="E37" s="18">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F37" s="18">
+        <v>-0.115</v>
+      </c>
+      <c r="G37" s="18">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.219</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.7629999999999999</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="D38" s="18">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="E38" s="18">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>-0.29099999999999998</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.214</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.857</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-0.13500000000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-0.30399999999999999</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="D39" s="19">
         <v>-5.6000000000000001E-2</v>
       </c>
-      <c r="E11" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-0.19500000000000001</v>
-      </c>
-      <c r="G11" s="2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.871</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.215</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.114</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="F15" s="2">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.126</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="E39" s="19">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F19" s="2">
-        <v>-0.16800000000000001</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-0.73799999999999999</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-1.34</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-0.29199999999999998</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-0.84899999999999998</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.248</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-1.417</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-0.441</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-0.48599999999999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-0.76700000000000002</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-0.23100000000000001</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-0.57099999999999995</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-0.874</v>
-      </c>
-      <c r="G23" s="2">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.504</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.997</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-0.55200000000000005</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-0.84099999999999997</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-0.27400000000000002</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-0.73399999999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-1.016</v>
-      </c>
-      <c r="G27" s="2">
-        <v>-0.46500000000000002</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>-0.221</v>
-      </c>
-      <c r="E28" s="2">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-0.35599999999999998</v>
-      </c>
-      <c r="G28" s="2">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>-0.22900000000000001</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>-0.307</v>
-      </c>
-      <c r="E32" s="2">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-0.49199999999999999</v>
-      </c>
-      <c r="G32" s="2">
-        <v>-0.159</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>-0.17799999999999999</v>
-      </c>
-      <c r="E33" s="2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-0.36099999999999999</v>
-      </c>
-      <c r="G33" s="2">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F34" s="2">
-        <v>-0.44800000000000001</v>
-      </c>
-      <c r="G34" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F35" s="2">
-        <v>-0.55100000000000005</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>-0.13400000000000001</v>
-      </c>
-      <c r="G36" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-0.04</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-0.13400000000000001</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>-0.106</v>
-      </c>
-      <c r="E38" s="2">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-0.251</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-0.20100000000000001</v>
-      </c>
-      <c r="G39" s="2">
-        <v>7.1999999999999995E-2</v>
-      </c>
+      <c r="F39" s="19">
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="G39" s="19">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A27"/>
     <mergeCell ref="A28:A39"/>
@@ -1846,7 +1906,20 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>